--- a/fuentes/contenidos/grado10/guion04/CN_10_04_01_CO/EscaletaCN_10_04_01F.xlsx
+++ b/fuentes/contenidos/grado10/guion04/CN_10_04_01_CO/EscaletaCN_10_04_01F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -12,9 +12,10 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$46</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="221">
   <si>
     <t>Asignatura</t>
   </si>
@@ -398,9 +399,6 @@
     <t>CN_10_04_CO</t>
   </si>
   <si>
-    <t>Dinámica</t>
-  </si>
-  <si>
     <t>Fuerzas</t>
   </si>
   <si>
@@ -464,15 +462,6 @@
     <t xml:space="preserve">Actividad que permite clasificar algunas fuerzas comunes </t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Los sistemas de fuerzas   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividades sobre los sistemas de fuerzas </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los sistemas de fuerzas</t>
-  </si>
-  <si>
     <t>Ley de gravitación universal</t>
   </si>
   <si>
@@ -491,15 +480,6 @@
     <t>Explora la Ley de gravitación universal</t>
   </si>
   <si>
-    <t>Entiende la ley de la gravitación universal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que permite conceptualizar el fundamento de la Ley gravitación universal  </t>
-  </si>
-  <si>
-    <t>Comprende la ley de gravitación universal</t>
-  </si>
-  <si>
     <t>Diferencia entre masa y peso</t>
   </si>
   <si>
@@ -551,9 +531,6 @@
     <t>Refuerza tu aprendizaje: La teoría general de la relatividad</t>
   </si>
   <si>
-    <t>Actividad que permite solucionar problemas de análisis cualitativo aplicando la Ley de gravitación universal</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -566,27 +543,6 @@
     <t>Recurso M4A-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que permite valorar la importancia de la Ley de gravitación universal </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Aspectos de la ley de gravitación universal</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Importancia de ley de gravitación universal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: La ley de la gravitación universal  </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La fuerza gravitatoria y el peso</t>
-  </si>
-  <si>
-    <t>Actividad sobre fuerza gravitacional y peso</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La fuerza gravitatoria</t>
-  </si>
-  <si>
     <t>¿Qué sabes sobre el modelo actual del universo?</t>
   </si>
   <si>
@@ -684,6 +640,57 @@
   </si>
   <si>
     <t>Actividad que permite practicar el permite calcular el peso de varios objetos dada su masa</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Mapa Conceptual</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Competencias: descomposición de fuerzas</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar un experimento cómo se descomponen las fuerzas en un sistema</t>
+  </si>
+  <si>
+    <t>Competencias: exploración sobre la fuerza de gravedad</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar un experimento para comprobar las características de la fuerza de atracción gravitacional</t>
+  </si>
+  <si>
+    <t>Competencias: comprobacion de la fuerza de la gravedad</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema Las fuerzas</t>
+  </si>
+  <si>
+    <t>Analiza los diagramas de cuerpo libre</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre los diagramas de cuerpo libre</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Las fuerzas</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Las fuerzas</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema Las fuerzas</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1042,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1109,6 +1116,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,6 +1359,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja2"/>
+      <sheetName val="DATOS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1645,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1677,94 +1707,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="58" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -1774,17 +1804,17 @@
         <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1793,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>19</v>
@@ -1810,19 +1840,19 @@
         <v>19</v>
       </c>
       <c r="Q3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="S3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="T3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -1833,17 +1863,17 @@
         <v>122</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
@@ -1852,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1863,25 +1893,25 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15">
@@ -1892,17 +1922,17 @@
         <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="21">
         <v>3</v>
@@ -1911,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -1924,25 +1954,25 @@
         <v>28</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15">
@@ -1953,17 +1983,17 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="21">
         <v>4</v>
@@ -1972,7 +2002,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1989,19 +2019,19 @@
         <v>19</v>
       </c>
       <c r="Q6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="T6" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15">
@@ -2012,55 +2042,53 @@
         <v>122</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>141</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="9"/>
       <c r="G7" s="32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H7" s="21">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="P7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S7" s="10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15">
@@ -2071,15 +2099,17 @@
         <v>122</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="21">
         <v>6</v>
@@ -2088,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -2096,28 +2126,28 @@
       <c r="L8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="N8" s="8"/>
-      <c r="O8" s="9" t="s">
-        <v>135</v>
-      </c>
+      <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15">
@@ -2128,15 +2158,17 @@
         <v>122</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -2145,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -2155,26 +2187,26 @@
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>154</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -2185,55 +2217,55 @@
         <v>122</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="T10" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15">
@@ -2244,55 +2276,55 @@
         <v>122</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H11" s="21">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S11" s="10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -2303,55 +2335,55 @@
         <v>122</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S12" s="10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15">
@@ -2362,13 +2394,13 @@
         <v>122</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="32" t="s">
@@ -2378,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>165</v>
@@ -2387,30 +2419,30 @@
         <v>19</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S13" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>166</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15">
@@ -2421,55 +2453,55 @@
         <v>122</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H14" s="21">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S14" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15">
@@ -2480,17 +2512,17 @@
         <v>122</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H15" s="21">
         <v>13</v>
@@ -2499,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>19</v>
@@ -2513,22 +2545,22 @@
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S15" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -2539,55 +2571,55 @@
         <v>122</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="21">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="33">
-        <v>10</v>
+      <c r="Q16" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15">
@@ -2598,17 +2630,17 @@
         <v>122</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="32" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
@@ -2617,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2631,22 +2663,22 @@
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S17" s="10" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="T17" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15">
@@ -2657,55 +2689,55 @@
         <v>122</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="34" t="s">
+        <v>134</v>
+      </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S18" s="10" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15">
@@ -2716,17 +2748,17 @@
         <v>122</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2735,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2745,26 +2777,26 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S19" s="10" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15">
@@ -2775,55 +2807,55 @@
         <v>122</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H20" s="21">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="9"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="34" t="s">
+        <v>134</v>
+      </c>
       <c r="P20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S20" s="10" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15">
@@ -2834,55 +2866,55 @@
         <v>122</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H21" s="21">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S21" s="10" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15">
@@ -2893,26 +2925,26 @@
         <v>122</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="32" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2929,19 +2961,19 @@
         <v>19</v>
       </c>
       <c r="Q22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S22" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="U22" s="10" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15">
@@ -2952,55 +2984,55 @@
         <v>122</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="21">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="34" t="s">
-        <v>135</v>
-      </c>
+      <c r="N23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S23" s="10" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15">
@@ -3011,17 +3043,15 @@
         <v>122</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>198</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="9"/>
       <c r="G24" s="32" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H24" s="21">
         <v>22</v>
@@ -3030,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -3040,26 +3070,26 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="S24" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15">
@@ -3070,55 +3100,53 @@
         <v>122</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="19" t="s">
         <v>204</v>
       </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="9"/>
       <c r="G25" s="32" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H25" s="21">
         <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="34" t="s">
-        <v>135</v>
-      </c>
+      <c r="N25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="9"/>
       <c r="P25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="S25" s="10" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15">
@@ -3129,17 +3157,15 @@
         <v>122</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>204</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E26" s="37"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="32" t="s">
-        <v>208</v>
+      <c r="G26" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="H26" s="21">
         <v>24</v>
@@ -3147,38 +3173,26 @@
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>209</v>
+      <c r="J26" s="39" t="s">
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>197</v>
-      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
@@ -3188,17 +3202,15 @@
         <v>122</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>141</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E27" s="37"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="32" t="s">
-        <v>210</v>
+      <c r="G27" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="H27" s="21">
         <v>25</v>
@@ -3206,37 +3218,37 @@
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="31" t="s">
-        <v>212</v>
+      <c r="J27" s="39" t="s">
+        <v>215</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O27" s="9"/>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="10" t="s">
-        <v>127</v>
+      <c r="Q27" s="33">
+        <v>10</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15">
@@ -3247,17 +3259,15 @@
         <v>122</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>141</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E28" s="37"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="32" t="s">
-        <v>213</v>
+      <c r="G28" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -3265,61 +3275,95 @@
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="31" t="s">
-        <v>214</v>
+      <c r="J28" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>127</v>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>10</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
+      <c r="G29" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="21">
+        <v>27</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="10"/>
+      <c r="P29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>10</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18"/>
@@ -3373,7 +3417,7 @@
       <c r="C32" s="20"/>
       <c r="D32" s="18"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="32"/>
       <c r="H32" s="21"/>
       <c r="I32" s="5"/>
@@ -3382,7 +3426,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="11"/>
@@ -3511,7 +3555,7 @@
       <c r="C38" s="20"/>
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="35"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="32"/>
       <c r="H38" s="21"/>
       <c r="I38" s="5"/>
@@ -3520,7 +3564,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="34"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="11"/>
@@ -3533,18 +3577,18 @@
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="32"/>
       <c r="H39" s="21"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="31"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="7"/>
       <c r="L39" s="6"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
+      <c r="P39" s="34"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="11"/>
       <c r="S39" s="10"/>
@@ -3556,7 +3600,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="9"/>
       <c r="G40" s="32"/>
       <c r="H40" s="21"/>
@@ -3579,7 +3623,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="9"/>
       <c r="G41" s="32"/>
       <c r="H41" s="21"/>
@@ -3602,7 +3646,7 @@
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="9"/>
       <c r="G42" s="32"/>
       <c r="H42" s="21"/>
@@ -3625,7 +3669,7 @@
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="9"/>
       <c r="G43" s="32"/>
       <c r="H43" s="21"/>
@@ -3648,7 +3692,7 @@
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="9"/>
       <c r="G44" s="32"/>
       <c r="H44" s="21"/>
@@ -3676,13 +3720,13 @@
       <c r="G45" s="32"/>
       <c r="H45" s="21"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="36"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="34"/>
+      <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
       <c r="S45" s="10"/>
@@ -3713,16 +3757,16 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="32"/>
+      <c r="G47" s="16"/>
       <c r="H47" s="21"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="31"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="7"/>
       <c r="L47" s="6"/>
       <c r="M47" s="8"/>
@@ -3736,16 +3780,16 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="21"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="31"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="7"/>
       <c r="L48" s="6"/>
       <c r="M48" s="8"/>
@@ -3759,16 +3803,16 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="21"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="31"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="7"/>
       <c r="L49" s="6"/>
       <c r="M49" s="8"/>
@@ -3782,16 +3826,16 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="21"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="31"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="7"/>
       <c r="L50" s="6"/>
       <c r="M50" s="8"/>
@@ -3805,16 +3849,16 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="18"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="21"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="31"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="7"/>
       <c r="L51" s="6"/>
       <c r="M51" s="8"/>
@@ -3828,16 +3872,16 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="13"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="21"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="31"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="7"/>
       <c r="L52" s="6"/>
       <c r="M52" s="8"/>
@@ -3858,7 +3902,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="9"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="21"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="5"/>
       <c r="J53" s="17"/>
       <c r="K53" s="7"/>
@@ -4126,342 +4170,210 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="10"/>
-    </row>
-    <row r="66" spans="1:21" ht="15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="10"/>
-    </row>
-    <row r="67" spans="1:21" ht="15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="10"/>
-    </row>
-    <row r="68" spans="1:21" ht="15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="10"/>
-    </row>
-    <row r="69" spans="1:21" ht="15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="10"/>
-    </row>
-    <row r="70" spans="1:21" ht="15">
-      <c r="A70" s="4"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="10"/>
-    </row>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
+    <row r="66" spans="1:1" hidden="1"/>
+    <row r="67" spans="1:1" hidden="1"/>
+    <row r="68" spans="1:1" hidden="1"/>
+    <row r="69" spans="1:1" hidden="1"/>
+    <row r="70" spans="1:1" hidden="1"/>
+    <row r="71" spans="1:1" hidden="1"/>
+    <row r="72" spans="1:1" hidden="1"/>
+    <row r="73" spans="1:1" hidden="1"/>
+    <row r="74" spans="1:1" hidden="1"/>
+    <row r="75" spans="1:1" hidden="1"/>
+    <row r="76" spans="1:1" hidden="1"/>
+    <row r="77" spans="1:1" hidden="1"/>
+    <row r="78" spans="1:1" hidden="1"/>
+    <row r="79" spans="1:1" hidden="1">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" hidden="1">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" hidden="1">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" hidden="1">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" hidden="1">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" hidden="1">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1">
-      <c r="A116" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1">
-      <c r="A117" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1">
-      <c r="A118" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1">
-      <c r="A119" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1">
-      <c r="A120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" hidden="1">
-      <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="116" spans="1:1" hidden="1"/>
+    <row r="117" spans="1:1" hidden="1"/>
+    <row r="118" spans="1:1" hidden="1"/>
+    <row r="119" spans="1:1" hidden="1"/>
+    <row r="120" spans="1:1" hidden="1"/>
+    <row r="121" spans="1:1" hidden="1"/>
     <row r="122" spans="1:1" hidden="1"/>
     <row r="123" spans="1:1" hidden="1"/>
     <row r="124" spans="1:1" hidden="1"/>
@@ -4619,14 +4531,8 @@
     <row r="276" hidden="1"/>
     <row r="277" hidden="1"/>
     <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:U52">
+  <autoFilter ref="A1:U46">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
@@ -4655,48 +4561,96 @@
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K44 P3:P44 P46:P70 K46:K70 I3:I70</xm:sqref>
+          <xm:sqref>P40:P64 K40:K64 P30:P38 K30:K38 I30:I64 K3:K23 P3:P23 I3:I23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L44 L46:L70</xm:sqref>
+          <xm:sqref>L40:L64 L30:L38 L3:L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>L45</xm:sqref>
+          <xm:sqref>K39:L39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATOS!$E$14:$E$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>N30:N64 N3:N23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATOS!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A30:A64 A3:A23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATOS!$E$1:$E$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>M30:M64 M3:M23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>M26:M29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L26:L29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I26:I29 K26:K29 P26:P29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A24:A29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N26:N29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K45</xm:sqref>
+          <xm:sqref>M24:M25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATOS!$E$14:$E$48</xm:f>
+            <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N70</xm:sqref>
+          <xm:sqref>N24:N25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATOS!$A$1:$A$4</xm:f>
+            <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A70</xm:sqref>
+          <xm:sqref>L24:L25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DATOS!$E$1:$E$13</xm:f>
+            <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M70</xm:sqref>
+          <xm:sqref>K24:K25 P24:P25 I24:I25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
